--- a/Modelos em Python/7 dias a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/7 dias a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.78673559892368</v>
+        <v>9.281682781683484</v>
       </c>
       <c r="C2" t="n">
-        <v>38.6924443892423</v>
+        <v>29.60551425215195</v>
       </c>
       <c r="D2" t="n">
-        <v>50.41152030804008</v>
+        <v>39.88739431436511</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.56368507765664</v>
+        <v>11.77156293169208</v>
       </c>
       <c r="C3" t="n">
-        <v>54.92144750670012</v>
+        <v>37.69726491120625</v>
       </c>
       <c r="D3" t="n">
-        <v>73.87555031184081</v>
+        <v>52.43008876186557</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.5605607519339</v>
+        <v>10.37070035130433</v>
       </c>
       <c r="C4" t="n">
-        <v>45.88611991250545</v>
+        <v>32.94329563243322</v>
       </c>
       <c r="D4" t="n">
-        <v>59.35104151355951</v>
+        <v>44.38944482819282</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.49167221249755</v>
+        <v>10.29710640942793</v>
       </c>
       <c r="C5" t="n">
-        <v>43.35293267586862</v>
+        <v>32.95691273005551</v>
       </c>
       <c r="D5" t="n">
-        <v>56.79316919772444</v>
+        <v>43.8529263228174</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.95562507107004</v>
+        <v>10.7698767681173</v>
       </c>
       <c r="C6" t="n">
-        <v>47.01664478209133</v>
+        <v>34.2180506174485</v>
       </c>
       <c r="D6" t="n">
-        <v>61.32018621375248</v>
+        <v>46.31747119573237</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.47854041163875</v>
+        <v>10.92690432908897</v>
       </c>
       <c r="C7" t="n">
-        <v>47.13784910502912</v>
+        <v>35.1586131654654</v>
       </c>
       <c r="D7" t="n">
-        <v>60.90969210550317</v>
+        <v>47.72703968300084</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.53351321143849</v>
+        <v>11.82626921875632</v>
       </c>
       <c r="C8" t="n">
-        <v>54.87481741197075</v>
+        <v>37.88432999572352</v>
       </c>
       <c r="D8" t="n">
-        <v>73.55664138161204</v>
+        <v>52.46948745708539</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.49609250496157</v>
+        <v>11.82077029751939</v>
       </c>
       <c r="C9" t="n">
-        <v>54.7667274236391</v>
+        <v>37.86565826018806</v>
       </c>
       <c r="D9" t="n">
-        <v>73.55095282079499</v>
+        <v>52.34694065164586</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.2605276540037</v>
+        <v>119.7092329454651</v>
       </c>
       <c r="C10" t="n">
-        <v>517.1513760611178</v>
+        <v>522.9556394616322</v>
       </c>
       <c r="D10" t="n">
-        <v>517.2203793587922</v>
+        <v>522.984615079018</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.43433210238966</v>
+        <v>22.65743900984702</v>
       </c>
       <c r="C11" t="n">
-        <v>121.3410771173132</v>
+        <v>71.33365078829608</v>
       </c>
       <c r="D11" t="n">
-        <v>134.0517475934325</v>
+        <v>82.74339954011192</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.98295830694472</v>
+        <v>23.0963373312635</v>
       </c>
       <c r="C12" t="n">
-        <v>117.0755416485458</v>
+        <v>72.79489389114701</v>
       </c>
       <c r="D12" t="n">
-        <v>129.9203213368701</v>
+        <v>84.17775629698538</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.59364379081126</v>
+        <v>22.02187003301459</v>
       </c>
       <c r="C13" t="n">
-        <v>118.8118385155004</v>
+        <v>69.11331565348139</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7263132555237</v>
+        <v>80.96812764929588</v>
       </c>
     </row>
   </sheetData>
